--- a/config_12.01/shoping_config.xlsx
+++ b/config_12.01/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1783">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6904,805 +6904,797 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一20元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000鱼币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万小游戏币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万小游戏币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万小游戏币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万小游戏币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万小游戏币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000小游戏币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元-1</t>
-  </si>
-  <si>
-    <t>聚划算98元-2</t>
-  </si>
-  <si>
-    <t>聚划算98元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算198元-1</t>
-  </si>
-  <si>
-    <t>聚划算198元-2</t>
-  </si>
-  <si>
-    <t>聚划算198元-2(10min)</t>
-  </si>
-  <si>
-    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元-1</t>
-  </si>
-  <si>
-    <t>聚划算8元-2</t>
-  </si>
-  <si>
-    <t>聚划算8元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算38元-1</t>
-  </si>
-  <si>
-    <t>聚划算38元-2</t>
-  </si>
-  <si>
-    <t>聚划算38元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算498元-1</t>
-  </si>
-  <si>
-    <t>聚划算498元-2</t>
-  </si>
-  <si>
-    <t>聚划算498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算998元-1</t>
-  </si>
-  <si>
-    <t>聚划算998元-2</t>
-  </si>
-  <si>
-    <t>聚划算998元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算2498元-1</t>
-  </si>
-  <si>
-    <t>聚划算2498元-2</t>
-  </si>
-  <si>
-    <t>聚划算2498元-2(10min)</t>
-  </si>
-  <si>
-    <t>聚划算38元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算38元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算98元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算198元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算998元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算2498元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚划算8元2（10min）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铂金礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>星耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一本万利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"680万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币",</t>
-  </si>
-  <si>
-    <t>"80万金币","4.8万金币","0.8万",</t>
-  </si>
-  <si>
-    <t>"380万金币","11万金币",</t>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币",</t>
-  </si>
-  <si>
-    <t>"380万金币","22.8万金币","3.8万",</t>
-  </si>
-  <si>
-    <t>"980万金币","29万金币",</t>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币",</t>
-  </si>
-  <si>
-    <t>"980万金币","58.8万金币","9.8万",</t>
-  </si>
-  <si>
-    <t>"1980万金币","59万金币",</t>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币",</t>
-  </si>
-  <si>
-    <t>"1980万金币","118.8万金币","19.8万",</t>
-  </si>
-  <si>
-    <t>"4980万金币","149万金币",</t>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币",</t>
-  </si>
-  <si>
-    <t>"4980万金币","298.8万金币","49.8万",</t>
-  </si>
-  <si>
-    <t>"9980万金币","299万金币",</t>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币",</t>
-  </si>
-  <si>
-    <t>"9980万金币","598.8万金币","99.8万",</t>
-  </si>
-  <si>
-    <t>"24980万金币","749万金币",</t>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币",</t>
-  </si>
-  <si>
-    <t>"24980万金币","1498.8万金币","249.8万",</t>
-  </si>
-  <si>
-    <t>"80万金币","2.4万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>824000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>848000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>856000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3910000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4028000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4066000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10090000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10388000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20390000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20988000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>21186000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>51290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>52788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>53286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>102790000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>105788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>106786000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>257290000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>264788000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>267286000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10366,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10363,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10372,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10375,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10378,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10381,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{last=10369,reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,0</t>
-  </si>
-  <si>
-    <t>5,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,400000,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"75万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","水滴*2","玩具锤*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","水滴*3","玩具锤*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","水滴*4","玩具锤*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","水滴*5","玩具锤*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","水滴*6","玩具锤*6",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","水滴*7","玩具锤*7",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","水滴*8","玩具锤*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","水滴*10","玩具锤*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","水滴*20","玩具锤*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>76880000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>64880000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>54880000,8,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,7,7,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>32880000,6,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>22180000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,4,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5380000,3,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3180000,2,2,</t>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8628,8 +8620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8777,6 +8769,7 @@
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>42</v>
       </c>
@@ -8854,6 +8847,9 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8934,6 +8930,9 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9014,6 +9013,9 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9094,6 +9096,9 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9174,6 +9179,9 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9254,6 +9262,9 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9334,6 +9345,9 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9415,7 +9429,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9499,7 +9515,9 @@
       <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -9583,7 +9601,6 @@
       <c r="E12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="52"/>
       <c r="H12" s="11" t="s">
         <v>42</v>
       </c>
@@ -9664,7 +9681,6 @@
       <c r="E13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="52"/>
       <c r="H13" s="11" t="s">
         <v>42</v>
       </c>
@@ -9745,7 +9761,6 @@
       <c r="E14" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="52"/>
       <c r="H14" s="11" t="s">
         <v>42</v>
       </c>
@@ -9826,7 +9841,6 @@
       <c r="E15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="52"/>
       <c r="H15" s="11" t="s">
         <v>42</v>
       </c>
@@ -9907,7 +9921,6 @@
       <c r="E16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="52"/>
       <c r="H16" s="11" t="s">
         <v>42</v>
       </c>
@@ -9980,7 +9993,6 @@
         <v>22</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="52"/>
       <c r="H17" s="11" t="s">
         <v>42</v>
       </c>
@@ -10053,7 +10065,6 @@
         <v>23</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="52"/>
       <c r="H18" s="11" t="s">
         <v>42</v>
       </c>
@@ -10126,7 +10137,6 @@
         <v>24</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="52"/>
       <c r="H19" s="11" t="s">
         <v>42</v>
       </c>
@@ -10199,7 +10209,6 @@
         <v>25</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="52"/>
       <c r="H20" s="11" t="s">
         <v>42</v>
       </c>
@@ -10272,7 +10281,6 @@
         <v>26</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="52"/>
       <c r="H21" s="11" t="s">
         <v>42</v>
       </c>
@@ -10345,7 +10353,6 @@
         <v>27</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="F22" s="52"/>
       <c r="H22" s="11" t="s">
         <v>42</v>
       </c>
@@ -10418,7 +10425,6 @@
         <v>34</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="52"/>
       <c r="H23" s="11" t="s">
         <v>42</v>
       </c>
@@ -10497,7 +10503,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="52"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10578,10 +10586,10 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I332" sqref="I332"/>
+      <selection pane="bottomRight" activeCell="P447" sqref="P447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14372,7 +14380,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>233</v>
@@ -14428,7 +14436,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>235</v>
@@ -14484,7 +14492,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>237</v>
@@ -14540,7 +14548,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>239</v>
@@ -14596,7 +14604,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>240</v>
@@ -15931,7 +15939,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>264</v>
@@ -17965,7 +17973,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>330</v>
@@ -18021,7 +18029,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>538</v>
@@ -27306,7 +27314,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>541</v>
@@ -29975,7 +29983,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -30810,7 +30818,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30829,7 +30837,7 @@
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q328" s="47" t="s">
         <v>1139</v>
@@ -30892,7 +30900,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -30911,10 +30919,10 @@
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q329" s="47" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -30974,7 +30982,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -30993,10 +31001,10 @@
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q330" s="47" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31056,7 +31064,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31075,10 +31083,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q331" s="47" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31138,7 +31146,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31157,10 +31165,10 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q332" s="47" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31220,7 +31228,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31239,10 +31247,10 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q333" s="47" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
@@ -31302,7 +31310,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31321,10 +31329,10 @@
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q334" s="47" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
@@ -31384,7 +31392,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31403,10 +31411,10 @@
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q335" s="47" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31466,7 +31474,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31485,10 +31493,10 @@
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q336" s="47" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
@@ -31548,7 +31556,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31567,10 +31575,10 @@
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="Q337" s="47" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
@@ -33827,7 +33835,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1316</v>
@@ -36377,7 +36385,7 @@
         <v>1457</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36398,7 +36406,7 @@
         <v>1467</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1468</v>
@@ -36463,7 +36471,7 @@
         <v>1467</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="V409" s="5" t="s">
         <v>1469</v>
@@ -36593,7 +36601,7 @@
         <v>1467</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="V411" s="5" t="s">
         <v>1470</v>
@@ -36658,7 +36666,7 @@
         <v>1467</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="V412" s="5" t="s">
         <v>1471</v>
@@ -36702,7 +36710,7 @@
         <v>1462</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36723,7 +36731,7 @@
         <v>1467</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="V413" s="5" t="s">
         <v>1469</v>
@@ -38014,7 +38022,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1536</v>
@@ -38082,7 +38090,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1576</v>
+        <v>1779</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1552</v>
@@ -38147,7 +38155,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1577</v>
+        <v>1779</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1555</v>
@@ -38212,7 +38220,7 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1573</v>
+        <v>1780</v>
       </c>
       <c r="Q436" s="10" t="s">
         <v>1553</v>
@@ -38277,7 +38285,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1574</v>
+        <v>1780</v>
       </c>
       <c r="Q437" s="10" t="s">
         <v>1556</v>
@@ -38342,7 +38350,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="Q438" s="10" t="s">
         <v>1557</v>
@@ -38407,7 +38415,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1578</v>
+        <v>1782</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1558</v>
@@ -38466,19 +38474,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1579</v>
+        <v>1781</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1554</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38513,10 +38521,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38534,13 +38542,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38575,10 +38583,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38596,13 +38604,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38637,10 +38645,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38658,13 +38666,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="Q443" s="10" t="s">
         <v>1595</v>
       </c>
-      <c r="Q443" s="10" t="s">
-        <v>1601</v>
-      </c>
       <c r="V443" s="5" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38699,10 +38707,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38720,13 +38728,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38761,10 +38769,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38782,13 +38790,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="V445" s="5" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38823,10 +38831,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38844,13 +38852,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="V446" s="5" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38885,13 +38893,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38909,10 +38917,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38953,13 +38961,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38977,10 +38985,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -39018,13 +39026,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39042,10 +39050,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -39086,13 +39094,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="64" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="H450" s="64" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="K450" s="64">
         <v>-31</v>
@@ -39110,10 +39118,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q450" s="65" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39154,13 +39162,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="64" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="H451" s="64" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="K451" s="64">
         <v>-31</v>
@@ -39178,10 +39186,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q451" s="65" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39219,13 +39227,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="64" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="H452" s="64" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="K452" s="64">
         <v>-31</v>
@@ -39243,10 +39251,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q452" s="65" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39287,13 +39295,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39311,10 +39319,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39355,13 +39363,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39379,10 +39387,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39420,13 +39428,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39444,10 +39452,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1704</v>
+        <v>1778</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39488,13 +39496,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="64" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="H456" s="64" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="K456" s="64">
         <v>-31</v>
@@ -39512,10 +39520,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q456" s="65" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39556,13 +39564,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="64" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="H457" s="64" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="K457" s="64">
         <v>-31</v>
@@ -39580,10 +39588,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q457" s="65" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39621,13 +39629,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="64" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="H458" s="64" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="K458" s="64">
         <v>-31</v>
@@ -39645,10 +39653,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q458" s="65" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39689,13 +39697,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39713,10 +39721,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39757,13 +39765,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39781,10 +39789,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39822,13 +39830,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39846,10 +39854,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39890,13 +39898,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="64" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="H462" s="64" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="K462" s="64">
         <v>-31</v>
@@ -39914,10 +39922,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q462" s="65" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39958,13 +39966,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="64" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="H463" s="64" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="K463" s="64">
         <v>-31</v>
@@ -39982,13 +39990,13 @@
         <v>99800</v>
       </c>
       <c r="P463" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q463" s="65" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="V463" s="5" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="W463" s="64">
         <v>9999999</v>
@@ -40023,13 +40031,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="64" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="H464" s="64" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="K464" s="64">
         <v>-31</v>
@@ -40047,10 +40055,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="64" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q464" s="65" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -40091,13 +40099,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40115,10 +40123,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40159,13 +40167,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40183,10 +40191,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40224,13 +40232,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40248,10 +40256,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40292,13 +40300,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="H468" s="58" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="K468" s="58">
         <v>-31</v>
@@ -40316,13 +40324,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40357,13 +40365,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="H469" s="58" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="K469" s="58">
         <v>-31</v>
@@ -40381,13 +40389,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40422,13 +40430,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H470" s="58" t="s">
         <v>1657</v>
       </c>
-      <c r="H470" s="58" t="s">
-        <v>1663</v>
-      </c>
       <c r="I470" s="58" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="K470" s="58">
         <v>-31</v>
@@ -40446,13 +40454,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q470" s="59" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40487,13 +40495,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="58" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="H471" s="58" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I471" s="58" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="K471" s="58">
         <v>-31</v>
@@ -40511,13 +40519,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="V471" s="58" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="W471" s="58">
         <v>9999999</v>
@@ -40552,13 +40560,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="58" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="H472" s="58" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I472" s="58" t="s">
         <v>1663</v>
-      </c>
-      <c r="I472" s="58" t="s">
-        <v>1669</v>
       </c>
       <c r="K472" s="58">
         <v>-31</v>
@@ -40576,13 +40584,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q472" s="59" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="58" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="W472" s="58">
         <v>9999999</v>
@@ -40617,13 +40625,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="58" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="H473" s="58" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I473" s="58" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="K473" s="58">
         <v>-31</v>
@@ -40641,13 +40649,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="58" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="V473" s="58" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="W473" s="58">
         <v>9999999</v>
@@ -40682,13 +40690,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="68" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="H474" s="68" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="I474" s="68" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="K474" s="68">
         <v>-31</v>
@@ -40706,13 +40714,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="68" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="Q474" s="69" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="V474" s="68" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="W474" s="68">
         <v>9999999</v>
@@ -40747,13 +40755,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="68" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="H475" s="68" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="I475" s="68" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="K475" s="68">
         <v>-31</v>
@@ -40765,19 +40773,19 @@
         <v>0</v>
       </c>
       <c r="N475" s="68" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="O475" s="68">
         <v>249800</v>
       </c>
       <c r="P475" s="68" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="Q475" s="69" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="V475" s="68" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="W475" s="68">
         <v>9999999</v>
@@ -40812,13 +40820,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="H476" s="70" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="I476" s="70" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="K476" s="70">
         <v>-31</v>
@@ -40830,19 +40838,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="O476" s="70">
         <v>49800</v>
       </c>
       <c r="P476" s="70" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="Q476" s="71" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="V476" s="70" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="W476" s="70">
         <v>9999999</v>
@@ -40877,13 +40885,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="H477" s="70" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="I477" s="70" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="K477" s="70">
         <v>-31</v>
@@ -40895,19 +40903,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="70" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="O477" s="70">
         <v>19800</v>
       </c>
       <c r="P477" s="70" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="Q477" s="71" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="V477" s="70" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="W477" s="70">
         <v>9999999</v>
@@ -40942,13 +40950,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="H478" s="70" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="K478" s="70">
         <v>-31</v>
@@ -40960,16 +40968,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="70" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="O478" s="70">
         <v>9800</v>
       </c>
       <c r="P478" s="70" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="Q478" s="71" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="V478" s="70" t="s">
         <v>551</v>
@@ -41007,13 +41015,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="H479" s="70" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="K479" s="70">
         <v>-31</v>
@@ -41031,13 +41039,13 @@
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="Q479" s="71" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41500,7 +41508,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41734,7 +41742,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41748,7 +41756,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41762,7 +41770,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41846,7 +41854,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41860,7 +41868,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41874,7 +41882,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41888,7 +41896,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41902,7 +41910,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41916,7 +41924,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41930,7 +41938,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41944,7 +41952,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41958,7 +41966,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41972,7 +41980,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41986,7 +41994,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -42000,7 +42008,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -42014,7 +42022,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -42028,7 +42036,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
